--- a/managerproducts/data/import/data1.xlsx
+++ b/managerproducts/data/import/data1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DATA\2025\Lab\lab1\managerproducts\data\import\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{702CE1C0-6979-45F1-8DE7-1F5BD4451AA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D8F6A4-210A-4951-B08E-4D81C107D2E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{73B2E137-2813-4D7A-9F9A-492D41CF7525}"/>
   </bookViews>
@@ -412,7 +412,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -525,5 +525,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>